--- a/biology/Médecine/Sulfure_de_carbone_(maladie_professionnelle)/Sulfure_de_carbone_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Sulfure_de_carbone_(maladie_professionnelle)/Sulfure_de_carbone_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une intoxication au sulfure de carbone soit reconnue comme maladie professionnelle en France.
 Cet article relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical. 
@@ -514,13 +526,125 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Régime agricole
-Données professionnelles
-Le sulfure de carbone, de formule chimique CS2, est un solvant très toxique, utilisé en chimie pour dissoudre de nombreux composants organiques, ainsi que le soufre, le phosphore blanc, le sélénium, le diiode, le caoutchouc ou les résines et les cires.
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sulfure_de_carbone_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sulfure_de_carbone_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sulfure_de_carbone_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sulfure_de_carbone_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sulfure de carbone, de formule chimique CS2, est un solvant très toxique, utilisé en chimie pour dissoudre de nombreux composants organiques, ainsi que le soufre, le phosphore blanc, le sélénium, le diiode, le caoutchouc ou les résines et les cires.
 Il est aussi utilisé comme intermédiaire de synthèse dans la fabrication de nombreux composés organiques soufrés : agents de vulcanisation du caoutchouc, produits pharmaceutiques, produits phytosanitaires (fongicides, insecticides). Au XIXe siècle, il fut utilisé pour lutter contre le phylloxéra de la vigne.
-Données médicales
-À des niveaux élevés, le sulfure de carbone  peut être mortel car il touche le système nerveux. Ce point est critique dans l'industrie de la rayonne viscose où il est présent en plus du sulfure d'hydrogène lui aussi toxique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sulfure_de_carbone_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sulfure_de_carbone_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À des niveaux élevés, le sulfure de carbone  peut être mortel car il touche le système nerveux. Ce point est critique dans l'industrie de la rayonne viscose où il est présent en plus du sulfure d'hydrogène lui aussi toxique.
 À dose plus faibles et en exposition chronique il peut être responsable d'atteintes neurologiques, névrites et polynévrites.
 </t>
         </is>
